--- a/BastianHerre/nuclear_weapons/Suh 2022 strategic nuclear forces/snforce_monadic.xlsx
+++ b/BastianHerre/nuclear_weapons/Suh 2022 strategic nuclear forces/snforce_monadic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirpi\Library\Library\PC Library\Data\Strategic Nuclear Force Dataset\Our World in Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C863C-59FE-4B0C-882D-878480A09BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA96D28-3598-49A1-BF3E-D1235CFC8A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9EB0D055-65B2-4292-A07B-AD1EBC748DA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ccode</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>monadicEMT</t>
-  </si>
-  <si>
-    <t>monadicCMP</t>
   </si>
   <si>
     <t>warheads</t>
@@ -415,21 +412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECFAC45-57EF-4B0D-B930-7173AAF3D99B}">
-  <dimension ref="A1:F383"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I373" sqref="I373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="6" width="14.453125" customWidth="1"/>
+    <col min="4" max="5" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -445,11 +442,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2</v>
       </c>
@@ -460,16 +454,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1.141749382019043</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.15223325788974762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -480,16 +471,13 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>2.2073822021484375</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.68504965305328369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -500,16 +488,13 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>1.7506823539733887</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.98951613903045654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -520,16 +505,13 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>4.0772900581359863</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>3.8058314323425293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -543,13 +525,10 @@
         <v>121</v>
       </c>
       <c r="E6">
-        <v>8.1906661987304688</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>11.940608978271484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -563,13 +542,10 @@
         <v>225</v>
       </c>
       <c r="E7">
-        <v>12.730072021484375</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>22.20361328125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -580,16 +556,13 @@
         <v>438</v>
       </c>
       <c r="D8">
-        <v>569</v>
+        <v>438</v>
       </c>
       <c r="E8">
-        <v>103.15287780761719</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>129.08847045898438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -605,11 +578,8 @@
       <c r="E9">
         <v>194.51686096191406</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -625,11 +595,8 @@
       <c r="E10">
         <v>166.03955078125</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -645,11 +612,8 @@
       <c r="E11">
         <v>834.500244140625</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -665,11 +629,8 @@
       <c r="E12">
         <v>3783.91015625</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -685,11 +646,8 @@
       <c r="E13">
         <v>9027.59375</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -705,11 +663,8 @@
       <c r="E14">
         <v>9591.146484375</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -725,11 +680,8 @@
       <c r="E15">
         <v>9565.93359375</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -745,11 +697,8 @@
       <c r="E16">
         <v>9125.4140625</v>
       </c>
-      <c r="F16">
-        <v>0.67552083730697632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -765,11 +714,8 @@
       <c r="E17">
         <v>10765.1669921875</v>
       </c>
-      <c r="F17">
-        <v>3.0102803707122803</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
@@ -785,11 +731,8 @@
       <c r="E18">
         <v>9581.390625</v>
       </c>
-      <c r="F18">
-        <v>47.877979278564453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2</v>
       </c>
@@ -805,11 +748,8 @@
       <c r="E19">
         <v>11622.966796875</v>
       </c>
-      <c r="F19">
-        <v>281.22683715820313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2</v>
       </c>
@@ -825,11 +765,8 @@
       <c r="E20">
         <v>10841.3427734375</v>
       </c>
-      <c r="F20">
-        <v>650.5260009765625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2</v>
       </c>
@@ -845,11 +782,8 @@
       <c r="E21">
         <v>10023.2158203125</v>
       </c>
-      <c r="F21">
-        <v>779.17364501953125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>2</v>
       </c>
@@ -865,11 +799,8 @@
       <c r="E22">
         <v>9619.4609375</v>
       </c>
-      <c r="F22">
-        <v>669.56695556640625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -885,11 +816,8 @@
       <c r="E23">
         <v>9833.0908203125</v>
       </c>
-      <c r="F23">
-        <v>1442.9420166015625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>2</v>
       </c>
@@ -905,11 +833,8 @@
       <c r="E24">
         <v>10359.8896484375</v>
       </c>
-      <c r="F24">
-        <v>1720.1226806640625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>2</v>
       </c>
@@ -925,11 +850,8 @@
       <c r="E25">
         <v>10310.15625</v>
       </c>
-      <c r="F25">
-        <v>1694.92822265625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>2</v>
       </c>
@@ -945,11 +867,8 @@
       <c r="E26">
         <v>10102.6181640625</v>
       </c>
-      <c r="F26">
-        <v>3012.444091796875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>2</v>
       </c>
@@ -965,11 +884,8 @@
       <c r="E27">
         <v>9898.599609375</v>
       </c>
-      <c r="F27">
-        <v>4816.00634765625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>2</v>
       </c>
@@ -985,11 +901,8 @@
       <c r="E28">
         <v>9638.50390625</v>
       </c>
-      <c r="F28">
-        <v>7105.81103515625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1005,11 +918,8 @@
       <c r="E29">
         <v>10939.3857421875</v>
       </c>
-      <c r="F29">
-        <v>9584.7744140625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1025,11 +935,8 @@
       <c r="E30">
         <v>9886.34375</v>
       </c>
-      <c r="F30">
-        <v>12521.05078125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1045,11 +952,8 @@
       <c r="E31">
         <v>8973.068359375</v>
       </c>
-      <c r="F31">
-        <v>14327.4794921875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1065,11 +969,8 @@
       <c r="E32">
         <v>8813.9091796875</v>
       </c>
-      <c r="F32">
-        <v>16438.216796875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1085,11 +986,8 @@
       <c r="E33">
         <v>9070.337890625</v>
       </c>
-      <c r="F33">
-        <v>16637.12109375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1105,11 +1003,8 @@
       <c r="E34">
         <v>9086.58203125</v>
       </c>
-      <c r="F34">
-        <v>16700.4765625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1125,11 +1020,8 @@
       <c r="E35">
         <v>9083.068359375</v>
       </c>
-      <c r="F35">
-        <v>16827.1875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1145,11 +1037,8 @@
       <c r="E36">
         <v>9094.791015625</v>
       </c>
-      <c r="F36">
-        <v>16881.984375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1165,11 +1054,8 @@
       <c r="E37">
         <v>9096.349609375</v>
       </c>
-      <c r="F37">
-        <v>16966.052734375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1185,11 +1071,8 @@
       <c r="E38">
         <v>9080.712890625</v>
       </c>
-      <c r="F38">
-        <v>16988.94140625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1205,11 +1088,8 @@
       <c r="E39">
         <v>7907.25537109375</v>
       </c>
-      <c r="F39">
-        <v>122446.8046875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1225,11 +1105,8 @@
       <c r="E40">
         <v>6902.02783203125</v>
       </c>
-      <c r="F40">
-        <v>333013.375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1245,11 +1122,8 @@
       <c r="E41">
         <v>6722.2265625</v>
       </c>
-      <c r="F41">
-        <v>510840.21875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1265,11 +1139,8 @@
       <c r="E42">
         <v>6531.01904296875</v>
       </c>
-      <c r="F42">
-        <v>648992.625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1285,11 +1156,8 @@
       <c r="E43">
         <v>6571.87158203125</v>
       </c>
-      <c r="F43">
-        <v>862689.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1305,11 +1173,8 @@
       <c r="E44">
         <v>7001.166015625</v>
       </c>
-      <c r="F44">
-        <v>917271.0625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1325,11 +1190,8 @@
       <c r="E45">
         <v>5922.35205078125</v>
       </c>
-      <c r="F45">
-        <v>924992.0625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1345,11 +1207,8 @@
       <c r="E46">
         <v>5788.62548828125</v>
       </c>
-      <c r="F46">
-        <v>918212.6875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1365,11 +1224,8 @@
       <c r="E47">
         <v>5609.13623046875</v>
       </c>
-      <c r="F47">
-        <v>945430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1385,11 +1241,8 @@
       <c r="E48">
         <v>4553.94873046875</v>
       </c>
-      <c r="F48">
-        <v>917229.625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1405,11 +1258,8 @@
       <c r="E49">
         <v>3855.1796875</v>
       </c>
-      <c r="F49">
-        <v>646084.125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1425,11 +1275,8 @@
       <c r="E50">
         <v>3685.417236328125</v>
       </c>
-      <c r="F50">
-        <v>679170.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1445,11 +1292,8 @@
       <c r="E51">
         <v>3479.552734375</v>
       </c>
-      <c r="F51">
-        <v>643276.0625</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1465,11 +1309,8 @@
       <c r="E52">
         <v>3146.477783203125</v>
       </c>
-      <c r="F52">
-        <v>528167.0625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1485,11 +1326,8 @@
       <c r="E53">
         <v>3151.843017578125</v>
       </c>
-      <c r="F53">
-        <v>531923.875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1505,11 +1343,8 @@
       <c r="E54">
         <v>2773.031982421875</v>
       </c>
-      <c r="F54">
-        <v>534757.875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1525,11 +1360,8 @@
       <c r="E55">
         <v>2325.031982421875</v>
       </c>
-      <c r="F55">
-        <v>534757.875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1545,11 +1377,8 @@
       <c r="E56">
         <v>2465.031982421875</v>
       </c>
-      <c r="F56">
-        <v>534757.875</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1565,11 +1394,8 @@
       <c r="E57">
         <v>2465.031982421875</v>
       </c>
-      <c r="F57">
-        <v>534757.875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1585,11 +1411,8 @@
       <c r="E58">
         <v>2465.031982421875</v>
       </c>
-      <c r="F58">
-        <v>538368.9375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1605,11 +1428,8 @@
       <c r="E59">
         <v>2300.579345703125</v>
       </c>
-      <c r="F59">
-        <v>536259.8125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1625,11 +1445,8 @@
       <c r="E60">
         <v>2204.05908203125</v>
       </c>
-      <c r="F60">
-        <v>535295.625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1645,11 +1462,8 @@
       <c r="E61">
         <v>2123.73974609375</v>
       </c>
-      <c r="F61">
-        <v>530353.9375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1665,11 +1479,8 @@
       <c r="E62">
         <v>1811.1209716796875</v>
       </c>
-      <c r="F62">
-        <v>505426.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1685,11 +1496,8 @@
       <c r="E63">
         <v>1766.306884765625</v>
       </c>
-      <c r="F63">
-        <v>506450.03125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1705,11 +1513,8 @@
       <c r="E64">
         <v>1766.306884765625</v>
       </c>
-      <c r="F64">
-        <v>506450.03125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>2</v>
       </c>
@@ -1725,11 +1530,8 @@
       <c r="E65">
         <v>1289.53076171875</v>
       </c>
-      <c r="F65">
-        <v>348779.9375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>2</v>
       </c>
@@ -1745,11 +1547,8 @@
       <c r="E66">
         <v>1305.3193359375</v>
       </c>
-      <c r="F66">
-        <v>240382.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>2</v>
       </c>
@@ -1765,11 +1564,8 @@
       <c r="E67">
         <v>1006.2261962890625</v>
       </c>
-      <c r="F67">
-        <v>167382.53125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>200</v>
       </c>
@@ -1785,11 +1581,8 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>200</v>
       </c>
@@ -1805,11 +1598,8 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>200</v>
       </c>
@@ -1825,11 +1615,8 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>200</v>
       </c>
@@ -1845,11 +1632,8 @@
       <c r="E71">
         <v>2.3577802181243896</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>200</v>
       </c>
@@ -1865,11 +1649,8 @@
       <c r="E72">
         <v>14.14668083190918</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>200</v>
       </c>
@@ -1885,11 +1666,8 @@
       <c r="E73">
         <v>17.093906402587891</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>200</v>
       </c>
@@ -1905,11 +1683,8 @@
       <c r="E74">
         <v>18.17967414855957</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>200</v>
       </c>
@@ -1925,11 +1700,8 @@
       <c r="E75">
         <v>27.951576232910156</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>200</v>
       </c>
@@ -1945,11 +1717,8 @@
       <c r="E76">
         <v>37.180595397949219</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>200</v>
       </c>
@@ -1965,11 +1734,8 @@
       <c r="E77">
         <v>87.180595397949219</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>200</v>
       </c>
@@ -1985,11 +1751,8 @@
       <c r="E78">
         <v>125.10311889648438</v>
       </c>
-      <c r="F78">
-        <v>204.24330139160156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>200</v>
       </c>
@@ -2005,11 +1768,8 @@
       <c r="E79">
         <v>136.596435546875</v>
       </c>
-      <c r="F79">
-        <v>408.486572265625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>200</v>
       </c>
@@ -2025,11 +1785,8 @@
       <c r="E80">
         <v>136.596435546875</v>
       </c>
-      <c r="F80">
-        <v>408.486572265625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>200</v>
       </c>
@@ -2045,11 +1802,8 @@
       <c r="E81">
         <v>136.596435546875</v>
       </c>
-      <c r="F81">
-        <v>408.486572265625</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>200</v>
       </c>
@@ -2065,11 +1819,8 @@
       <c r="E82">
         <v>142.02528381347656</v>
       </c>
-      <c r="F82">
-        <v>408.486572265625</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>200</v>
       </c>
@@ -2085,11 +1836,8 @@
       <c r="E83">
         <v>152.88294982910156</v>
       </c>
-      <c r="F83">
-        <v>408.486572265625</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>200</v>
       </c>
@@ -2105,11 +1853,8 @@
       <c r="E84">
         <v>67.664421081542969</v>
       </c>
-      <c r="F84">
-        <v>333.17071533203125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>200</v>
       </c>
@@ -2125,11 +1870,8 @@
       <c r="E85">
         <v>59.108070373535156</v>
       </c>
-      <c r="F85">
-        <v>100.84160614013672</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>200</v>
       </c>
@@ -2145,11 +1887,8 @@
       <c r="E86">
         <v>65.318374633789063</v>
       </c>
-      <c r="F86">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>200</v>
       </c>
@@ -2165,11 +1904,8 @@
       <c r="E87">
         <v>71.832977294921875</v>
       </c>
-      <c r="F87">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>200</v>
       </c>
@@ -2185,11 +1921,8 @@
       <c r="E88">
         <v>81.604873657226563</v>
       </c>
-      <c r="F88">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>200</v>
       </c>
@@ -2205,11 +1938,8 @@
       <c r="E89">
         <v>126.12132263183594</v>
       </c>
-      <c r="F89">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>200</v>
       </c>
@@ -2225,11 +1955,8 @@
       <c r="E90">
         <v>126.12132263183594</v>
       </c>
-      <c r="F90">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>200</v>
       </c>
@@ -2245,11 +1972,8 @@
       <c r="E91">
         <v>126.12132263183594</v>
       </c>
-      <c r="F91">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>200</v>
       </c>
@@ -2265,11 +1989,8 @@
       <c r="E92">
         <v>126.12132263183594</v>
       </c>
-      <c r="F92">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>200</v>
       </c>
@@ -2285,11 +2006,8 @@
       <c r="E93">
         <v>126.12132263183594</v>
       </c>
-      <c r="F93">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>200</v>
       </c>
@@ -2305,11 +2023,8 @@
       <c r="E94">
         <v>126.12132263183594</v>
       </c>
-      <c r="F94">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>200</v>
       </c>
@@ -2325,11 +2040,8 @@
       <c r="E95">
         <v>126.12132263183594</v>
       </c>
-      <c r="F95">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>200</v>
       </c>
@@ -2345,11 +2057,8 @@
       <c r="E96">
         <v>126.12132263183594</v>
       </c>
-      <c r="F96">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>200</v>
       </c>
@@ -2365,11 +2074,8 @@
       <c r="E97">
         <v>126.12132263183594</v>
       </c>
-      <c r="F97">
-        <v>25.525720596313477</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>200</v>
       </c>
@@ -2385,11 +2091,8 @@
       <c r="E98">
         <v>105.14850616455078</v>
       </c>
-      <c r="F98">
-        <v>20.552936553955078</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>200</v>
       </c>
@@ -2405,11 +2108,8 @@
       <c r="E99">
         <v>18.287141799926758</v>
       </c>
-      <c r="F99">
-        <v>20.552936553955078</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>200</v>
       </c>
@@ -2425,11 +2125,8 @@
       <c r="E100">
         <v>14.686588287353516</v>
       </c>
-      <c r="F100">
-        <v>15.580153465270996</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>200</v>
       </c>
@@ -2445,11 +2142,8 @@
       <c r="E101">
         <v>11.086036682128906</v>
       </c>
-      <c r="F101">
-        <v>10.607370376586914</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>200</v>
       </c>
@@ -2465,11 +2159,8 @@
       <c r="E102">
         <v>11.086036682128906</v>
       </c>
-      <c r="F102">
-        <v>10.607370376586914</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>200</v>
       </c>
@@ -2485,11 +2176,8 @@
       <c r="E103">
         <v>7.4854855537414551</v>
       </c>
-      <c r="F103">
-        <v>5.6345868110656738</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>200</v>
       </c>
@@ -2505,11 +2193,8 @@
       <c r="E104">
         <v>7.4854855537414551</v>
       </c>
-      <c r="F104">
-        <v>5.6345868110656738</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>200</v>
       </c>
@@ -2525,11 +2210,8 @@
       <c r="E105">
         <v>7.4854855537414551</v>
       </c>
-      <c r="F105">
-        <v>5.6345868110656738</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>200</v>
       </c>
@@ -2545,11 +2227,8 @@
       <c r="E106">
         <v>7.4854855537414551</v>
       </c>
-      <c r="F106">
-        <v>5.6345868110656738</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>200</v>
       </c>
@@ -2565,11 +2244,8 @@
       <c r="E107">
         <v>7.4854855537414551</v>
       </c>
-      <c r="F107">
-        <v>5.6345868110656738</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>200</v>
       </c>
@@ -2585,11 +2261,8 @@
       <c r="E108">
         <v>7.4854855537414551</v>
       </c>
-      <c r="F108">
-        <v>5.6345868110656738</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>200</v>
       </c>
@@ -2605,11 +2278,8 @@
       <c r="E109">
         <v>7.4854855537414551</v>
       </c>
-      <c r="F109">
-        <v>5.6345868110656738</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>200</v>
       </c>
@@ -2625,11 +2295,8 @@
       <c r="E110">
         <v>7.4854855537414551</v>
       </c>
-      <c r="F110">
-        <v>5.6345868110656738</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>200</v>
       </c>
@@ -2645,11 +2312,8 @@
       <c r="E111">
         <v>15.955400466918945</v>
       </c>
-      <c r="F111">
-        <v>943.42193603515625</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>200</v>
       </c>
@@ -2665,11 +2329,8 @@
       <c r="E112">
         <v>20.682573318481445</v>
       </c>
-      <c r="F112">
-        <v>1878.3919677734375</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>200</v>
       </c>
@@ -2685,11 +2346,8 @@
       <c r="E113">
         <v>20.682573318481445</v>
       </c>
-      <c r="F113">
-        <v>1878.3919677734375</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>200</v>
       </c>
@@ -2705,11 +2363,8 @@
       <c r="E114">
         <v>31.023859024047852</v>
       </c>
-      <c r="F114">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>200</v>
       </c>
@@ -2725,11 +2380,8 @@
       <c r="E115">
         <v>31.023859024047852</v>
       </c>
-      <c r="F115">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>200</v>
       </c>
@@ -2745,11 +2397,8 @@
       <c r="E116">
         <v>31.023859024047852</v>
       </c>
-      <c r="F116">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>200</v>
       </c>
@@ -2765,11 +2414,8 @@
       <c r="E117">
         <v>31.023859024047852</v>
       </c>
-      <c r="F117">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>200</v>
       </c>
@@ -2785,11 +2431,8 @@
       <c r="E118">
         <v>31.023859024047852</v>
       </c>
-      <c r="F118">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>200</v>
       </c>
@@ -2805,11 +2448,8 @@
       <c r="E119">
         <v>31.023859024047852</v>
       </c>
-      <c r="F119">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>200</v>
       </c>
@@ -2825,11 +2465,8 @@
       <c r="E120">
         <v>31.023859024047852</v>
       </c>
-      <c r="F120">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>200</v>
       </c>
@@ -2845,11 +2482,8 @@
       <c r="E121">
         <v>31.023859024047852</v>
       </c>
-      <c r="F121">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>200</v>
       </c>
@@ -2865,11 +2499,8 @@
       <c r="E122">
         <v>31.023859024047852</v>
       </c>
-      <c r="F122">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>200</v>
       </c>
@@ -2885,11 +2516,8 @@
       <c r="E123">
         <v>31.023859024047852</v>
       </c>
-      <c r="F123">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>200</v>
       </c>
@@ -2905,11 +2533,8 @@
       <c r="E124">
         <v>31.023859024047852</v>
       </c>
-      <c r="F124">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>200</v>
       </c>
@@ -2925,11 +2550,8 @@
       <c r="E125">
         <v>31.023859024047852</v>
       </c>
-      <c r="F125">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>200</v>
       </c>
@@ -2945,11 +2567,8 @@
       <c r="E126">
         <v>31.023859024047852</v>
       </c>
-      <c r="F126">
-        <v>2817.587890625</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>220</v>
       </c>
@@ -2965,11 +2584,8 @@
       <c r="E127">
         <v>0</v>
       </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>220</v>
       </c>
@@ -2985,11 +2601,8 @@
       <c r="E128">
         <v>0</v>
       </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>220</v>
       </c>
@@ -3005,11 +2618,8 @@
       <c r="E129">
         <v>0</v>
       </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>220</v>
       </c>
@@ -3025,11 +2635,8 @@
       <c r="E130">
         <v>0</v>
       </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>220</v>
       </c>
@@ -3045,11 +2652,8 @@
       <c r="E131">
         <v>0.61304754018783569</v>
       </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>220</v>
       </c>
@@ -3065,11 +2669,8 @@
       <c r="E132">
         <v>4.9043803215026855</v>
       </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>220</v>
       </c>
@@ -3085,11 +2686,8 @@
       <c r="E133">
         <v>5.517427921295166</v>
       </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>220</v>
       </c>
@@ -3105,11 +2703,8 @@
       <c r="E134">
         <v>5.517427921295166</v>
       </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>220</v>
       </c>
@@ -3125,11 +2720,8 @@
       <c r="E135">
         <v>5.517427921295166</v>
       </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>220</v>
       </c>
@@ -3145,11 +2737,8 @@
       <c r="E136">
         <v>5.517427921295166</v>
       </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>220</v>
       </c>
@@ -3165,11 +2754,8 @@
       <c r="E137">
         <v>5.517427921295166</v>
       </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>220</v>
       </c>
@@ -3185,11 +2771,8 @@
       <c r="E138">
         <v>7.7070207595825195</v>
       </c>
-      <c r="F138">
-        <v>1.6503934860229492</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>220</v>
       </c>
@@ -3205,11 +2788,8 @@
       <c r="E139">
         <v>19.975982666015625</v>
       </c>
-      <c r="F139">
-        <v>18.854766845703125</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>220</v>
       </c>
@@ -3225,11 +2805,8 @@
       <c r="E140">
         <v>30.055351257324219</v>
       </c>
-      <c r="F140">
-        <v>34.408748626708984</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>220</v>
       </c>
@@ -3245,11 +2822,8 @@
       <c r="E141">
         <v>30.055351257324219</v>
       </c>
-      <c r="F141">
-        <v>34.408748626708984</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>220</v>
       </c>
@@ -3265,11 +2839,8 @@
       <c r="E142">
         <v>30.055351257324219</v>
       </c>
-      <c r="F142">
-        <v>34.408748626708984</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>220</v>
       </c>
@@ -3285,11 +2856,8 @@
       <c r="E143">
         <v>29.442302703857422</v>
       </c>
-      <c r="F143">
-        <v>34.408748626708984</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>220</v>
       </c>
@@ -3305,11 +2873,8 @@
       <c r="E144">
         <v>45.442302703857422</v>
       </c>
-      <c r="F144">
-        <v>59.408748626708984</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>220</v>
       </c>
@@ -3325,11 +2890,8 @@
       <c r="E145">
         <v>59.252708435058594</v>
       </c>
-      <c r="F145">
-        <v>82.758354187011719</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>220</v>
       </c>
@@ -3345,11 +2907,8 @@
       <c r="E146">
         <v>59.252708435058594</v>
       </c>
-      <c r="F146">
-        <v>82.758354187011719</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>220</v>
       </c>
@@ -3365,11 +2924,8 @@
       <c r="E147">
         <v>77.904380798339844</v>
       </c>
-      <c r="F147">
-        <v>114.0625</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>220</v>
       </c>
@@ -3385,11 +2941,8 @@
       <c r="E148">
         <v>77.904380798339844</v>
       </c>
-      <c r="F148">
-        <v>114.0625</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>220</v>
       </c>
@@ -3405,11 +2958,8 @@
       <c r="E149">
         <v>77.904380798339844</v>
       </c>
-      <c r="F149">
-        <v>114.0625</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>220</v>
       </c>
@@ -3425,11 +2975,8 @@
       <c r="E150">
         <v>86.291336059570313</v>
       </c>
-      <c r="F150">
-        <v>128.125</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>220</v>
       </c>
@@ -3445,11 +2992,8 @@
       <c r="E151">
         <v>86.291336059570313</v>
       </c>
-      <c r="F151">
-        <v>128.125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>220</v>
       </c>
@@ -3465,11 +3009,8 @@
       <c r="E152">
         <v>97.393173217773438</v>
       </c>
-      <c r="F152">
-        <v>292.9073486328125</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>220</v>
       </c>
@@ -3485,11 +3026,8 @@
       <c r="E153">
         <v>98.549392700195313</v>
       </c>
-      <c r="F153">
-        <v>312.02798461914063</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>220</v>
       </c>
@@ -3505,11 +3043,8 @@
       <c r="E154">
         <v>111.42050170898438</v>
       </c>
-      <c r="F154">
-        <v>495.93099975585938</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>220</v>
       </c>
@@ -3525,11 +3060,8 @@
       <c r="E155">
         <v>112.27020263671875</v>
       </c>
-      <c r="F155">
-        <v>515.0516357421875</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>220</v>
       </c>
@@ -3545,11 +3077,8 @@
       <c r="E156">
         <v>112.27020263671875</v>
       </c>
-      <c r="F156">
-        <v>515.0516357421875</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>220</v>
       </c>
@@ -3565,11 +3094,8 @@
       <c r="E157">
         <v>123.37203979492188</v>
       </c>
-      <c r="F157">
-        <v>679.833984375</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>220</v>
       </c>
@@ -3585,11 +3111,8 @@
       <c r="E158">
         <v>134.473876953125</v>
       </c>
-      <c r="F158">
-        <v>844.6163330078125</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>220</v>
       </c>
@@ -3605,11 +3128,8 @@
       <c r="E159">
         <v>134.473876953125</v>
       </c>
-      <c r="F159">
-        <v>844.6163330078125</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>220</v>
       </c>
@@ -3625,11 +3145,8 @@
       <c r="E160">
         <v>134.473876953125</v>
       </c>
-      <c r="F160">
-        <v>844.6163330078125</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>220</v>
       </c>
@@ -3645,11 +3162,8 @@
       <c r="E161">
         <v>134.473876953125</v>
       </c>
-      <c r="F161">
-        <v>844.6163330078125</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>220</v>
       </c>
@@ -3665,11 +3179,8 @@
       <c r="E162">
         <v>134.473876953125</v>
       </c>
-      <c r="F162">
-        <v>844.6163330078125</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>220</v>
       </c>
@@ -3685,11 +3196,8 @@
       <c r="E163">
         <v>128.05461120605469</v>
       </c>
-      <c r="F163">
-        <v>779.037841796875</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>220</v>
       </c>
@@ -3705,11 +3213,8 @@
       <c r="E164">
         <v>122.15440368652344</v>
       </c>
-      <c r="F164">
-        <v>836.955810546875</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>220</v>
       </c>
@@ -3725,11 +3230,8 @@
       <c r="E165">
         <v>122.15440368652344</v>
       </c>
-      <c r="F165">
-        <v>836.955810546875</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>220</v>
       </c>
@@ -3745,11 +3247,8 @@
       <c r="E166">
         <v>122.15440368652344</v>
       </c>
-      <c r="F166">
-        <v>836.955810546875</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>220</v>
       </c>
@@ -3765,11 +3264,8 @@
       <c r="E167">
         <v>115.73513793945313</v>
       </c>
-      <c r="F167">
-        <v>771.37738037109375</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>220</v>
       </c>
@@ -3785,11 +3281,8 @@
       <c r="E168">
         <v>90.874008178710938</v>
       </c>
-      <c r="F168">
-        <v>597.5289306640625</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>220</v>
       </c>
@@ -3805,11 +3298,8 @@
       <c r="E169">
         <v>90.874008178710938</v>
       </c>
-      <c r="F169">
-        <v>597.5289306640625</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>220</v>
       </c>
@@ -3825,11 +3315,8 @@
       <c r="E170">
         <v>90.874008178710938</v>
       </c>
-      <c r="F170">
-        <v>597.5289306640625</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>220</v>
       </c>
@@ -3845,11 +3332,8 @@
       <c r="E171">
         <v>90.874008178710938</v>
       </c>
-      <c r="F171">
-        <v>597.5289306640625</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>220</v>
       </c>
@@ -3865,11 +3349,8 @@
       <c r="E172">
         <v>84.454742431640625</v>
       </c>
-      <c r="F172">
-        <v>531.950439453125</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>220</v>
       </c>
@@ -3885,11 +3366,8 @@
       <c r="E173">
         <v>84.454742431640625</v>
       </c>
-      <c r="F173">
-        <v>531.950439453125</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>220</v>
       </c>
@@ -3905,11 +3383,8 @@
       <c r="E174">
         <v>84.454742431640625</v>
       </c>
-      <c r="F174">
-        <v>531.950439453125</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>220</v>
       </c>
@@ -3925,11 +3400,8 @@
       <c r="E175">
         <v>74.113456726074219</v>
       </c>
-      <c r="F175">
-        <v>469.8485107421875</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>220</v>
       </c>
@@ -3945,11 +3417,8 @@
       <c r="E176">
         <v>74.113456726074219</v>
       </c>
-      <c r="F176">
-        <v>469.8485107421875</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>220</v>
       </c>
@@ -3965,11 +3434,8 @@
       <c r="E177">
         <v>74.113456726074219</v>
       </c>
-      <c r="F177">
-        <v>469.8485107421875</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>365</v>
       </c>
@@ -3985,11 +3451,8 @@
       <c r="E178">
         <v>0</v>
       </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>365</v>
       </c>
@@ -4005,11 +3468,8 @@
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>365</v>
       </c>
@@ -4025,11 +3485,8 @@
       <c r="E180">
         <v>0</v>
       </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>365</v>
       </c>
@@ -4045,11 +3502,8 @@
       <c r="E181">
         <v>0</v>
       </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>365</v>
       </c>
@@ -4065,11 +3519,8 @@
       <c r="E182">
         <v>0</v>
       </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>365</v>
       </c>
@@ -4085,11 +3536,8 @@
       <c r="E183">
         <v>0</v>
       </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>365</v>
       </c>
@@ -4105,11 +3553,8 @@
       <c r="E184">
         <v>0</v>
       </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>365</v>
       </c>
@@ -4125,11 +3570,8 @@
       <c r="E185">
         <v>123.96354675292969</v>
       </c>
-      <c r="F185">
-        <v>51.161094665527344</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>365</v>
       </c>
@@ -4145,11 +3587,8 @@
       <c r="E186">
         <v>161.89091491699219</v>
       </c>
-      <c r="F186">
-        <v>53.400955200195313</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>365</v>
       </c>
@@ -4165,11 +3604,8 @@
       <c r="E187">
         <v>324.56985473632813</v>
       </c>
-      <c r="F187">
-        <v>54.335922241210938</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>365</v>
       </c>
@@ -4185,11 +3621,8 @@
       <c r="E188">
         <v>419.68740844726563</v>
       </c>
-      <c r="F188">
-        <v>56.023422241210938</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>365</v>
       </c>
@@ -4205,11 +3638,8 @@
       <c r="E189">
         <v>729.334228515625</v>
       </c>
-      <c r="F189">
-        <v>99.380393981933594</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>365</v>
       </c>
@@ -4225,11 +3655,8 @@
       <c r="E190">
         <v>1148.77978515625</v>
       </c>
-      <c r="F190">
-        <v>190.96969604492188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>365</v>
       </c>
@@ -4245,11 +3672,8 @@
       <c r="E191">
         <v>1390.0870361328125</v>
       </c>
-      <c r="F191">
-        <v>234.60246276855469</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>365</v>
       </c>
@@ -4265,11 +3689,8 @@
       <c r="E192">
         <v>1764.310302734375</v>
       </c>
-      <c r="F192">
-        <v>300.96917724609375</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>365</v>
       </c>
@@ -4285,11 +3706,8 @@
       <c r="E193">
         <v>2083.839111328125</v>
       </c>
-      <c r="F193">
-        <v>337.8753662109375</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>365</v>
       </c>
@@ -4305,11 +3723,8 @@
       <c r="E194">
         <v>2201.888916015625</v>
       </c>
-      <c r="F194">
-        <v>385.8746337890625</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>365</v>
       </c>
@@ -4325,11 +3740,8 @@
       <c r="E195">
         <v>2314.541259765625</v>
       </c>
-      <c r="F195">
-        <v>428.49905395507813</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>365</v>
       </c>
@@ -4345,11 +3757,8 @@
       <c r="E196">
         <v>2879.303955078125</v>
       </c>
-      <c r="F196">
-        <v>672.6671142578125</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>365</v>
       </c>
@@ -4365,11 +3774,8 @@
       <c r="E197">
         <v>3240.127197265625</v>
       </c>
-      <c r="F197">
-        <v>814.92864990234375</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>365</v>
       </c>
@@ -4385,11 +3791,8 @@
       <c r="E198">
         <v>3639.677734375</v>
       </c>
-      <c r="F198">
-        <v>985.126220703125</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>365</v>
       </c>
@@ -4405,11 +3808,8 @@
       <c r="E199">
         <v>4011.2294921875</v>
       </c>
-      <c r="F199">
-        <v>1125.97900390625</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>365</v>
       </c>
@@ -4425,11 +3825,8 @@
       <c r="E200">
         <v>4172.94970703125</v>
       </c>
-      <c r="F200">
-        <v>1183.3326416015625</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>365</v>
       </c>
@@ -4445,11 +3842,8 @@
       <c r="E201">
         <v>4248.216796875</v>
       </c>
-      <c r="F201">
-        <v>1197.6220703125</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>365</v>
       </c>
@@ -4465,11 +3859,8 @@
       <c r="E202">
         <v>4311.26611328125</v>
       </c>
-      <c r="F202">
-        <v>1237.0521240234375</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>365</v>
       </c>
@@ -4485,11 +3876,8 @@
       <c r="E203">
         <v>4261.03076171875</v>
       </c>
-      <c r="F203">
-        <v>1260.2689208984375</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>365</v>
       </c>
@@ -4505,11 +3893,8 @@
       <c r="E204">
         <v>4615.72265625</v>
       </c>
-      <c r="F204">
-        <v>2017.478759765625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>365</v>
       </c>
@@ -4525,11 +3910,8 @@
       <c r="E205">
         <v>4791.96630859375</v>
       </c>
-      <c r="F205">
-        <v>2831.832275390625</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>365</v>
       </c>
@@ -4545,11 +3927,8 @@
       <c r="E206">
         <v>4736.81884765625</v>
       </c>
-      <c r="F206">
-        <v>3619.80322265625</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>365</v>
       </c>
@@ -4565,11 +3944,8 @@
       <c r="E207">
         <v>4994.19482421875</v>
       </c>
-      <c r="F207">
-        <v>5548.10400390625</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>365</v>
       </c>
@@ -4585,11 +3961,8 @@
       <c r="E208">
         <v>5668.6396484375</v>
       </c>
-      <c r="F208">
-        <v>11161.8427734375</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>365</v>
       </c>
@@ -4605,11 +3978,8 @@
       <c r="E209">
         <v>5974.12841796875</v>
       </c>
-      <c r="F209">
-        <v>18128.833984375</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>365</v>
       </c>
@@ -4625,11 +3995,8 @@
       <c r="E210">
         <v>6185.01220703125</v>
       </c>
-      <c r="F210">
-        <v>19707.552734375</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>365</v>
       </c>
@@ -4645,11 +4012,8 @@
       <c r="E211">
         <v>6348.3154296875</v>
       </c>
-      <c r="F211">
-        <v>29737.421875</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>365</v>
       </c>
@@ -4665,11 +4029,8 @@
       <c r="E212">
         <v>6306.87939453125</v>
       </c>
-      <c r="F212">
-        <v>141417.796875</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>365</v>
       </c>
@@ -4685,11 +4046,8 @@
       <c r="E213">
         <v>6446.69140625</v>
       </c>
-      <c r="F213">
-        <v>142169.109375</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>365</v>
       </c>
@@ -4705,11 +4063,8 @@
       <c r="E214">
         <v>6598.60546875</v>
       </c>
-      <c r="F214">
-        <v>41031.11328125</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>365</v>
       </c>
@@ -4725,11 +4080,8 @@
       <c r="E215">
         <v>6673.248046875</v>
       </c>
-      <c r="F215">
-        <v>447615.3125</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>365</v>
       </c>
@@ -4745,11 +4097,8 @@
       <c r="E216">
         <v>6757.8359375</v>
       </c>
-      <c r="F216">
-        <v>569206.125</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>365</v>
       </c>
@@ -4765,11 +4114,8 @@
       <c r="E217">
         <v>6807.80126953125</v>
       </c>
-      <c r="F217">
-        <v>686161.25</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>365</v>
       </c>
@@ -4785,11 +4131,8 @@
       <c r="E218">
         <v>6775.1650390625</v>
       </c>
-      <c r="F218">
-        <v>817266.625</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>365</v>
       </c>
@@ -4805,11 +4148,8 @@
       <c r="E219">
         <v>6317.7373046875</v>
       </c>
-      <c r="F219">
-        <v>825328.9375</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>365</v>
       </c>
@@ -4825,11 +4165,8 @@
       <c r="E220">
         <v>5619.310546875</v>
       </c>
-      <c r="F220">
-        <v>849976.4375</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>365</v>
       </c>
@@ -4845,11 +4182,8 @@
       <c r="E221">
         <v>5307.30224609375</v>
       </c>
-      <c r="F221">
-        <v>863995.5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>365</v>
       </c>
@@ -4865,11 +4199,8 @@
       <c r="E222">
         <v>4867.275390625</v>
       </c>
-      <c r="F222">
-        <v>884848.25</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>365</v>
       </c>
@@ -4885,11 +4216,8 @@
       <c r="E223">
         <v>4246.11962890625</v>
       </c>
-      <c r="F223">
-        <v>894001.9375</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>365</v>
       </c>
@@ -4905,11 +4233,8 @@
       <c r="E224">
         <v>3764.598876953125</v>
       </c>
-      <c r="F224">
-        <v>917673.375</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>365</v>
       </c>
@@ -4925,11 +4250,8 @@
       <c r="E225">
         <v>3690.2529296875</v>
       </c>
-      <c r="F225">
-        <v>916966.625</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>365</v>
       </c>
@@ -4945,11 +4267,8 @@
       <c r="E226">
         <v>3583.69140625</v>
       </c>
-      <c r="F226">
-        <v>910428.5625</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>365</v>
       </c>
@@ -4965,11 +4284,8 @@
       <c r="E227">
         <v>3532.8046875</v>
       </c>
-      <c r="F227">
-        <v>910399.25</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>365</v>
       </c>
@@ -4985,11 +4301,8 @@
       <c r="E228">
         <v>3498.53125</v>
       </c>
-      <c r="F228">
-        <v>893747.3125</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>365</v>
       </c>
@@ -5005,11 +4318,8 @@
       <c r="E229">
         <v>3498.53125</v>
       </c>
-      <c r="F229">
-        <v>893747.3125</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>365</v>
       </c>
@@ -5025,11 +4335,8 @@
       <c r="E230">
         <v>2850.7734375</v>
       </c>
-      <c r="F230">
-        <v>575344.75</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>365</v>
       </c>
@@ -5045,11 +4352,8 @@
       <c r="E231">
         <v>2777.48046875</v>
       </c>
-      <c r="F231">
-        <v>575203.75</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>365</v>
       </c>
@@ -5065,11 +4369,8 @@
       <c r="E232">
         <v>2701.942138671875</v>
       </c>
-      <c r="F232">
-        <v>577317.5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>365</v>
       </c>
@@ -5085,11 +4386,8 @@
       <c r="E233">
         <v>2408.81298828125</v>
       </c>
-      <c r="F233">
-        <v>577174.4375</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>365</v>
       </c>
@@ -5105,11 +4403,8 @@
       <c r="E234">
         <v>2150.64501953125</v>
       </c>
-      <c r="F234">
-        <v>574298.4375</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>365</v>
       </c>
@@ -5125,11 +4420,8 @@
       <c r="E235">
         <v>1937.823974609375</v>
       </c>
-      <c r="F235">
-        <v>570412.625</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>365</v>
       </c>
@@ -5145,11 +4437,8 @@
       <c r="E236">
         <v>1798.6246337890625</v>
       </c>
-      <c r="F236">
-        <v>569294.5625</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>365</v>
       </c>
@@ -5165,11 +4454,8 @@
       <c r="E237">
         <v>1649.84619140625</v>
       </c>
-      <c r="F237">
-        <v>575464.125</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>365</v>
       </c>
@@ -5185,11 +4471,8 @@
       <c r="E238">
         <v>1469.0635986328125</v>
       </c>
-      <c r="F238">
-        <v>556067.3125</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>365</v>
       </c>
@@ -5205,11 +4488,8 @@
       <c r="E239">
         <v>1260.757080078125</v>
       </c>
-      <c r="F239">
-        <v>541888.5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>560</v>
       </c>
@@ -5225,11 +4505,8 @@
       <c r="E240">
         <v>0.17426356673240662</v>
       </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>560</v>
       </c>
@@ -5245,11 +4522,8 @@
       <c r="E241">
         <v>0.17426356673240662</v>
       </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>560</v>
       </c>
@@ -5265,11 +4539,8 @@
       <c r="E242">
         <v>0.23235142230987549</v>
       </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>560</v>
       </c>
@@ -5285,11 +4556,8 @@
       <c r="E243">
         <v>0.29043927788734436</v>
       </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>560</v>
       </c>
@@ -5305,11 +4573,8 @@
       <c r="E244">
         <v>0.29043927788734436</v>
       </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>560</v>
       </c>
@@ -5325,11 +4590,8 @@
       <c r="E245">
         <v>0.29043927788734436</v>
       </c>
-      <c r="F245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>560</v>
       </c>
@@ -5345,11 +4607,8 @@
       <c r="E246">
         <v>0.29043927788734436</v>
       </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>560</v>
       </c>
@@ -5365,11 +4624,8 @@
       <c r="E247">
         <v>0.29043927788734436</v>
       </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>560</v>
       </c>
@@ -5385,11 +4641,8 @@
       <c r="E248">
         <v>0.29043927788734436</v>
       </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>666</v>
       </c>
@@ -5400,7 +4653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>666</v>
       </c>
@@ -5411,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>666</v>
       </c>
@@ -5422,7 +4675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>666</v>
       </c>
@@ -5433,7 +4686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>666</v>
       </c>
@@ -5444,7 +4697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>666</v>
       </c>
@@ -5455,7 +4708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>666</v>
       </c>
@@ -5466,7 +4719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>666</v>
       </c>
@@ -5829,7 +5082,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>666</v>
       </c>
@@ -5840,7 +5093,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>666</v>
       </c>
@@ -5851,7 +5104,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>666</v>
       </c>
@@ -5862,7 +5115,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>666</v>
       </c>
@@ -5873,7 +5126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>710</v>
       </c>
@@ -5889,11 +5142,8 @@
       <c r="E293">
         <v>0.11696071177721024</v>
       </c>
-      <c r="F293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>710</v>
       </c>
@@ -5909,11 +5159,8 @@
       <c r="E294">
         <v>0.58480358123779297</v>
       </c>
-      <c r="F294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>710</v>
       </c>
@@ -5929,11 +5176,8 @@
       <c r="E295">
         <v>2.1228137016296387</v>
       </c>
-      <c r="F295">
-        <v>2.8335411101579666E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>710</v>
       </c>
@@ -5949,11 +5193,8 @@
       <c r="E296">
         <v>2.4912168979644775</v>
       </c>
-      <c r="F296">
-        <v>5.6670822203159332E-2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>710</v>
       </c>
@@ -5969,11 +5210,8 @@
       <c r="E297">
         <v>34.014175415039063</v>
       </c>
-      <c r="F297">
-        <v>8.5006237030029297E-2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>710</v>
       </c>
@@ -5989,11 +5227,8 @@
       <c r="E298">
         <v>43.042831420898438</v>
       </c>
-      <c r="F298">
-        <v>0.11334164440631866</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>710</v>
       </c>
@@ -6009,11 +5244,8 @@
       <c r="E299">
         <v>55.903995513916016</v>
       </c>
-      <c r="F299">
-        <v>0.17001247406005859</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>710</v>
       </c>
@@ -6029,11 +5261,8 @@
       <c r="E300">
         <v>74.384002685546875</v>
       </c>
-      <c r="F300">
-        <v>11.309393882751465</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>710</v>
       </c>
@@ -6049,11 +5278,8 @@
       <c r="E301">
         <v>129.2913818359375</v>
       </c>
-      <c r="F301">
-        <v>33.503150939941406</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>710</v>
       </c>
@@ -6069,11 +5295,8 @@
       <c r="E302">
         <v>176.47944641113281</v>
       </c>
-      <c r="F302">
-        <v>44.585861206054688</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>710</v>
       </c>
@@ -6084,16 +5307,13 @@
         <v>170</v>
       </c>
       <c r="D303">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E303">
-        <v>215.37567138671875</v>
-      </c>
-      <c r="F303">
-        <v>55.696903228759766</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+        <v>213.64361572265625</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>710</v>
       </c>
@@ -6104,16 +5324,13 @@
         <v>180</v>
       </c>
       <c r="D304">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E304">
-        <v>245.24322509765625</v>
-      </c>
-      <c r="F304">
-        <v>66.779617309570313</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+        <v>231.38682556152344</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>710</v>
       </c>
@@ -6124,16 +5341,13 @@
         <v>180</v>
       </c>
       <c r="D305">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E305">
-        <v>262.563720703125</v>
-      </c>
-      <c r="F305">
-        <v>66.779617309570313</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+        <v>231.38681030273438</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>710</v>
       </c>
@@ -6144,16 +5358,13 @@
         <v>180</v>
       </c>
       <c r="D306">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E306">
-        <v>288.54449462890625</v>
-      </c>
-      <c r="F306">
-        <v>66.779617309570313</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>231.38681030273438</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>710</v>
       </c>
@@ -6164,16 +5375,13 @@
         <v>190</v>
       </c>
       <c r="D307">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="E307">
-        <v>332.691162109375</v>
-      </c>
-      <c r="F307">
-        <v>88.945037841796875</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+        <v>249.55271911621094</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>710</v>
       </c>
@@ -6184,16 +5392,13 @@
         <v>195</v>
       </c>
       <c r="D308">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="E308">
-        <v>376.46942138671875</v>
-      </c>
-      <c r="F308">
-        <v>111.08211517333984</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+        <v>267.3502197265625</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>710</v>
       </c>
@@ -6204,16 +5409,13 @@
         <v>205</v>
       </c>
       <c r="D309">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="E309">
-        <v>406.75967407226563</v>
-      </c>
-      <c r="F309">
-        <v>133.24754333496094</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+        <v>285.51611328125</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>710</v>
       </c>
@@ -6224,16 +5426,13 @@
         <v>210</v>
       </c>
       <c r="D310">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="E310">
-        <v>435.27017211914063</v>
-      </c>
-      <c r="F310">
-        <v>188.25277709960938</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+        <v>296.70611572265625</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>710</v>
       </c>
@@ -6244,16 +5443,13 @@
         <v>216</v>
       </c>
       <c r="D311">
-        <v>300</v>
+        <v>216</v>
       </c>
       <c r="E311">
-        <v>453.43609619140625</v>
-      </c>
-      <c r="F311">
-        <v>210.41819763183594</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+        <v>307.94381713867188</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>710</v>
       </c>
@@ -6264,16 +5460,13 @@
         <v>218</v>
       </c>
       <c r="D312">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="E312">
-        <v>479.89382934570313</v>
-      </c>
-      <c r="F312">
-        <v>232.55528259277344</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+        <v>320.545166015625</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>710</v>
       </c>
@@ -6284,16 +5477,13 @@
         <v>220</v>
       </c>
       <c r="D313">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="E313">
-        <v>505.79666137695313</v>
-      </c>
-      <c r="F313">
-        <v>280.4464111328125</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
+        <v>334.32363891601563</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>710</v>
       </c>
@@ -6304,16 +5494,13 @@
         <v>222</v>
       </c>
       <c r="D314">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="E314">
-        <v>501.72299194335938</v>
-      </c>
-      <c r="F314">
-        <v>313.23486328125</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+        <v>330.24993896484375</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>710</v>
       </c>
@@ -6324,16 +5511,13 @@
         <v>224</v>
       </c>
       <c r="D315">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="E315">
-        <v>495.85052490234375</v>
-      </c>
-      <c r="F315">
-        <v>293.43133544921875</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+        <v>333.03775024414063</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>710</v>
       </c>
@@ -6344,16 +5528,13 @@
         <v>226</v>
       </c>
       <c r="D316">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="E316">
-        <v>489.6639404296875</v>
-      </c>
-      <c r="F316">
-        <v>284.65390014648438</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+        <v>352.8319091796875</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>710</v>
       </c>
@@ -6364,16 +5545,13 @@
         <v>228</v>
       </c>
       <c r="D317">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="E317">
-        <v>509.287109375</v>
-      </c>
-      <c r="F317">
-        <v>336.34603881835938</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+        <v>349.93841552734375</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>710</v>
       </c>
@@ -6384,16 +5562,13 @@
         <v>230</v>
       </c>
       <c r="D318">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="E318">
-        <v>514.872314453125</v>
-      </c>
-      <c r="F318">
-        <v>344.13873291015625</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
+        <v>362.45184326171875</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>710</v>
       </c>
@@ -6404,16 +5579,13 @@
         <v>232</v>
       </c>
       <c r="D319">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="E319">
-        <v>487.5513916015625</v>
-      </c>
-      <c r="F319">
-        <v>313.14468383789063</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
+        <v>348.9873046875</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>710</v>
       </c>
@@ -6424,16 +5596,13 @@
         <v>234</v>
       </c>
       <c r="D320">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="E320">
-        <v>474.76315307617188</v>
-      </c>
-      <c r="F320">
-        <v>301.9541015625</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
+        <v>336.1990966796875</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>710</v>
       </c>
@@ -6444,16 +5613,13 @@
         <v>234</v>
       </c>
       <c r="D321">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="E321">
-        <v>474.76315307617188</v>
-      </c>
-      <c r="F321">
-        <v>301.9541015625</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+        <v>336.1990966796875</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>710</v>
       </c>
@@ -6464,16 +5630,13 @@
         <v>234</v>
       </c>
       <c r="D322">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="E322">
-        <v>474.76315307617188</v>
-      </c>
-      <c r="F322">
-        <v>301.9541015625</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
+        <v>336.1990966796875</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>710</v>
       </c>
@@ -6484,16 +5647,13 @@
         <v>234</v>
       </c>
       <c r="D323">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="E323">
-        <v>474.76315307617188</v>
-      </c>
-      <c r="F323">
-        <v>301.9541015625</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
+        <v>336.1990966796875</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>710</v>
       </c>
@@ -6504,16 +5664,13 @@
         <v>234</v>
       </c>
       <c r="D324">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="E324">
-        <v>474.76315307617188</v>
-      </c>
-      <c r="F324">
-        <v>301.9541015625</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
+        <v>336.1990966796875</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>710</v>
       </c>
@@ -6524,16 +5681,13 @@
         <v>234</v>
       </c>
       <c r="D325">
-        <v>305</v>
+        <v>234</v>
       </c>
       <c r="E325">
-        <v>476.09368896484375</v>
-      </c>
-      <c r="F325">
-        <v>293.14285278320313</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
+        <v>353.11807250976563</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>710</v>
       </c>
@@ -6544,16 +5698,13 @@
         <v>232</v>
       </c>
       <c r="D326">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="E326">
-        <v>424.13217163085938</v>
-      </c>
-      <c r="F326">
-        <v>293.14285278320313</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
+        <v>349.65396118164063</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>710</v>
       </c>
@@ -6564,16 +5715,13 @@
         <v>232</v>
       </c>
       <c r="D327">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="E327">
-        <v>424.13217163085938</v>
-      </c>
-      <c r="F327">
-        <v>293.14285278320313</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+        <v>349.65396118164063</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>710</v>
       </c>
@@ -6584,16 +5732,13 @@
         <v>232</v>
       </c>
       <c r="D328">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="E328">
-        <v>440.41281127929688</v>
-      </c>
-      <c r="F328">
-        <v>434.001220703125</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
+        <v>339.953857421875</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>710</v>
       </c>
@@ -6604,16 +5749,13 @@
         <v>232</v>
       </c>
       <c r="D329">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="E329">
-        <v>440.41281127929688</v>
-      </c>
-      <c r="F329">
-        <v>434.001220703125</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
+        <v>339.953857421875</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>710</v>
       </c>
@@ -6624,16 +5766,13 @@
         <v>235</v>
       </c>
       <c r="D330">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E330">
-        <v>440.41281127929688</v>
-      </c>
-      <c r="F330">
-        <v>434.001220703125</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+        <v>345.1500244140625</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>710</v>
       </c>
@@ -6644,16 +5783,13 @@
         <v>235</v>
       </c>
       <c r="D331">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="E331">
-        <v>425.88009643554688</v>
-      </c>
-      <c r="F331">
-        <v>424.55355834960938</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+        <v>344.47369384765625</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>710</v>
       </c>
@@ -6664,16 +5800,13 @@
         <v>235</v>
       </c>
       <c r="D332">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="E332">
-        <v>425.88009643554688</v>
-      </c>
-      <c r="F332">
-        <v>424.55355834960938</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+        <v>344.47369384765625</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>710</v>
       </c>
@@ -6684,16 +5817,13 @@
         <v>235</v>
       </c>
       <c r="D333">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="E333">
-        <v>425.88009643554688</v>
-      </c>
-      <c r="F333">
-        <v>424.55355834960938</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+        <v>344.47369384765625</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>710</v>
       </c>
@@ -6704,16 +5834,13 @@
         <v>235</v>
       </c>
       <c r="D334">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="E334">
-        <v>425.88009643554688</v>
-      </c>
-      <c r="F334">
-        <v>424.55355834960938</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
+        <v>344.47369384765625</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>710</v>
       </c>
@@ -6729,11 +5856,8 @@
       <c r="E335">
         <v>163.18144226074219</v>
       </c>
-      <c r="F335">
-        <v>358.47268676757813</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>710</v>
       </c>
@@ -6749,11 +5873,8 @@
       <c r="E336">
         <v>169.45541381835938</v>
       </c>
-      <c r="F336">
-        <v>371.27670288085938</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>710</v>
       </c>
@@ -6769,11 +5890,8 @@
       <c r="E337">
         <v>175.9140625</v>
       </c>
-      <c r="F337">
-        <v>479.94808959960938</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>710</v>
       </c>
@@ -6789,11 +5907,8 @@
       <c r="E338">
         <v>178.15475463867188</v>
       </c>
-      <c r="F338">
-        <v>484.52096557617188</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>710</v>
       </c>
@@ -6809,11 +5924,8 @@
       <c r="E339">
         <v>167.13215637207031</v>
       </c>
-      <c r="F339">
-        <v>608.63580322265625</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>750</v>
       </c>
@@ -6829,11 +5941,8 @@
       <c r="E340">
         <v>0</v>
       </c>
-      <c r="F340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>750</v>
       </c>
@@ -6849,11 +5958,8 @@
       <c r="E341">
         <v>0</v>
       </c>
-      <c r="F341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>750</v>
       </c>
@@ -6869,11 +5975,8 @@
       <c r="E342">
         <v>0</v>
       </c>
-      <c r="F342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>750</v>
       </c>
@@ -6889,11 +5992,8 @@
       <c r="E343">
         <v>0</v>
       </c>
-      <c r="F343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>750</v>
       </c>
@@ -6909,11 +6009,8 @@
       <c r="E344">
         <v>0</v>
       </c>
-      <c r="F344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>750</v>
       </c>
@@ -6929,11 +6026,8 @@
       <c r="E345">
         <v>0</v>
       </c>
-      <c r="F345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>750</v>
       </c>
@@ -6949,11 +6043,8 @@
       <c r="E346">
         <v>0.182466059923172</v>
       </c>
-      <c r="F346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>750</v>
       </c>
@@ -6969,11 +6060,8 @@
       <c r="E347">
         <v>0.182466059923172</v>
       </c>
-      <c r="F347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>750</v>
       </c>
@@ -6989,11 +6077,8 @@
       <c r="E348">
         <v>0.182466059923172</v>
       </c>
-      <c r="F348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>750</v>
       </c>
@@ -7009,11 +6094,8 @@
       <c r="E349">
         <v>0.182466059923172</v>
       </c>
-      <c r="F349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>750</v>
       </c>
@@ -7029,11 +6111,8 @@
       <c r="E350">
         <v>0.182466059923172</v>
       </c>
-      <c r="F350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>750</v>
       </c>
@@ -7049,11 +6128,8 @@
       <c r="E351">
         <v>0.48657616972923279</v>
       </c>
-      <c r="F351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+    </row>
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>750</v>
       </c>
@@ -7069,11 +6145,8 @@
       <c r="E352">
         <v>0.79068624973297119</v>
       </c>
-      <c r="F352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
+    </row>
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>750</v>
       </c>
@@ -7089,11 +6162,8 @@
       <c r="E353">
         <v>1.0947962999343872</v>
       </c>
-      <c r="F353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>750</v>
       </c>
@@ -7109,11 +6179,8 @@
       <c r="E354">
         <v>1.3989064693450928</v>
       </c>
-      <c r="F354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>750</v>
       </c>
@@ -7127,13 +6194,10 @@
         <v>28</v>
       </c>
       <c r="E355">
-        <v>1.7030165195465088</v>
-      </c>
-      <c r="F355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
+        <v>1.9004307985305786</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>750</v>
       </c>
@@ -7147,13 +6211,10 @@
         <v>33</v>
       </c>
       <c r="E356">
-        <v>2.0071265697479248</v>
-      </c>
-      <c r="F356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
+        <v>2.2045407295227051</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>750</v>
       </c>
@@ -7167,13 +6228,10 @@
         <v>38</v>
       </c>
       <c r="E357">
-        <v>2.3112368583679199</v>
-      </c>
-      <c r="F357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
+        <v>3.0515398979187012</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>750</v>
       </c>
@@ -7187,13 +6245,10 @@
         <v>43</v>
       </c>
       <c r="E358">
-        <v>2.6153469085693359</v>
-      </c>
-      <c r="F358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
+        <v>3.3556499481201172</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>750</v>
       </c>
@@ -7207,13 +6262,10 @@
         <v>50</v>
       </c>
       <c r="E359">
-        <v>3.2878689765930176</v>
-      </c>
-      <c r="F359">
-        <v>836.51165771484375</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
+        <v>4.0281720161437988</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>750</v>
       </c>
@@ -7227,13 +6279,10 @@
         <v>60</v>
       </c>
       <c r="E360">
-        <v>3.8960890769958496</v>
-      </c>
-      <c r="F360">
-        <v>836.51165771484375</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
+        <v>4.6363921165466309</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>750</v>
       </c>
@@ -7247,13 +6296,10 @@
         <v>70</v>
       </c>
       <c r="E361">
-        <v>4.5536627769470215</v>
-      </c>
-      <c r="F361">
-        <v>1003.81396484375</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
+        <v>5.2939658164978027</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>750</v>
       </c>
@@ -7267,13 +6313,10 @@
         <v>80</v>
       </c>
       <c r="E362">
-        <v>5.1618828773498535</v>
-      </c>
-      <c r="F362">
-        <v>1003.81396484375</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
+        <v>5.902186393737793</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>770</v>
       </c>
@@ -7289,11 +6332,8 @@
       <c r="E363">
         <v>0</v>
       </c>
-      <c r="F363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
+    </row>
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>770</v>
       </c>
@@ -7309,11 +6349,8 @@
       <c r="E364">
         <v>0</v>
       </c>
-      <c r="F364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
+    </row>
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>770</v>
       </c>
@@ -7329,11 +6366,8 @@
       <c r="E365">
         <v>0</v>
       </c>
-      <c r="F365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
+    </row>
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>770</v>
       </c>
@@ -7349,11 +6383,8 @@
       <c r="E366">
         <v>0</v>
       </c>
-      <c r="F366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367">
         <v>770</v>
       </c>
@@ -7369,11 +6400,8 @@
       <c r="E367">
         <v>0</v>
       </c>
-      <c r="F367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368">
         <v>770</v>
       </c>
@@ -7389,11 +6417,8 @@
       <c r="E368">
         <v>0.10482965409755707</v>
       </c>
-      <c r="F368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369">
         <v>770</v>
       </c>
@@ -7409,11 +6434,8 @@
       <c r="E369">
         <v>0.10482965409755707</v>
       </c>
-      <c r="F369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370">
         <v>770</v>
       </c>
@@ -7429,11 +6451,8 @@
       <c r="E370">
         <v>0.10482965409755707</v>
       </c>
-      <c r="F370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371">
         <v>770</v>
       </c>
@@ -7449,11 +6468,8 @@
       <c r="E371">
         <v>0.10482965409755707</v>
       </c>
-      <c r="F371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372">
         <v>770</v>
       </c>
@@ -7469,11 +6485,8 @@
       <c r="E372">
         <v>0.41931861639022827</v>
       </c>
-      <c r="F372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
+    </row>
+    <row r="373" spans="1:5">
       <c r="A373">
         <v>770</v>
       </c>
@@ -7489,11 +6502,8 @@
       <c r="E373">
         <v>0.73380756378173828</v>
       </c>
-      <c r="F373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
+    </row>
+    <row r="374" spans="1:5">
       <c r="A374">
         <v>770</v>
       </c>
@@ -7509,11 +6519,8 @@
       <c r="E374">
         <v>1.0482965707778931</v>
       </c>
-      <c r="F374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
+    </row>
+    <row r="375" spans="1:5">
       <c r="A375">
         <v>770</v>
       </c>
@@ -7529,11 +6536,8 @@
       <c r="E375">
         <v>1.3627855777740479</v>
       </c>
-      <c r="F375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376">
         <v>770</v>
       </c>
@@ -7549,11 +6553,8 @@
       <c r="E376">
         <v>3.1182236671447754</v>
       </c>
-      <c r="F376">
-        <v>29.967613220214844</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
+    </row>
+    <row r="377" spans="1:5">
       <c r="A377">
         <v>770</v>
       </c>
@@ -7567,13 +6568,10 @@
         <v>38</v>
       </c>
       <c r="E377">
-        <v>3.4327125549316406</v>
-      </c>
-      <c r="F377">
-        <v>29.967613220214844</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
+        <v>5.405400276184082</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
       <c r="A378">
         <v>770</v>
       </c>
@@ -7587,13 +6585,10 @@
         <v>44</v>
       </c>
       <c r="E378">
-        <v>3.7472014427185059</v>
-      </c>
-      <c r="F378">
-        <v>29.967613220214844</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
+        <v>6.5653271675109863</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
       <c r="A379">
         <v>770</v>
       </c>
@@ -7607,13 +6602,10 @@
         <v>50</v>
       </c>
       <c r="E379">
-        <v>4.0616903305053711</v>
-      </c>
-      <c r="F379">
-        <v>29.967613220214844</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
+        <v>7.7252540588378906</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380">
         <v>770</v>
       </c>
@@ -7624,16 +6616,13 @@
         <v>60</v>
       </c>
       <c r="D380">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E380">
-        <v>4.3761796951293945</v>
-      </c>
-      <c r="F380">
-        <v>29.967613220214844</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
+        <v>9.6584644317626953</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381">
         <v>770</v>
       </c>
@@ -7644,16 +6633,13 @@
         <v>70</v>
       </c>
       <c r="D381">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E381">
-        <v>4.3761796951293945</v>
-      </c>
-      <c r="F381">
-        <v>29.967613220214844</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
+        <v>11.591675758361816</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
       <c r="A382">
         <v>770</v>
       </c>
@@ -7664,16 +6650,13 @@
         <v>80</v>
       </c>
       <c r="D382">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E382">
-        <v>5.1761550903320313</v>
-      </c>
-      <c r="F382">
-        <v>32.717487335205078</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
+        <v>12.745617866516113</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383">
         <v>770</v>
       </c>
@@ -7684,13 +6667,10 @@
         <v>90</v>
       </c>
       <c r="D383">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E383">
-        <v>6.3769335746765137</v>
-      </c>
-      <c r="F383">
-        <v>43.071338653564453</v>
+        <v>13.998810768127441</v>
       </c>
     </row>
   </sheetData>
